--- a/docs/画面項目定義書/利用者詳細編集画面.xlsx
+++ b/docs/画面項目定義書/利用者詳細編集画面.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\private_cloud\private-cloud\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E27AA12-B6BA-485C-BD2C-CF7D63C5F86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A8C3FF-4EA2-41B5-A84C-8D091E363D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9525" yWindow="0" windowWidth="9750" windowHeight="10275" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="てんぷら" sheetId="1" r:id="rId1"/>
+    <sheet name="user_detail_edit" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>日本工学院</t>
   </si>
@@ -133,6 +133,14 @@
   </si>
   <si>
     <t>押下で変更を破棄し、表示モードへ遷移</t>
+  </si>
+  <si>
+    <t>user_detail_edit</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>user_detail_edit.html</t>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
@@ -999,21 +1007,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:G17"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.76953125" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" customWidth="1"/>
-    <col min="4" max="4" width="13.40625" customWidth="1"/>
-    <col min="5" max="5" width="26.1328125" customWidth="1"/>
-    <col min="6" max="6" width="40.90625" customWidth="1"/>
-    <col min="7" max="7" width="38.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="26.125" customWidth="1"/>
+    <col min="6" max="6" width="40.875" customWidth="1"/>
+    <col min="7" max="7" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.25">
+    <row r="1" spans="1:7" ht="13.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1024,7 +1032,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="13.25">
+    <row r="2" spans="1:7" ht="13.5">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1033,7 +1041,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="14.5">
+    <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1042,7 +1050,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="13.25">
+    <row r="4" spans="1:7" ht="13.5">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1051,7 +1059,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="13.25">
+    <row r="5" spans="1:7" ht="13.5">
       <c r="A5" s="37" t="s">
         <v>1</v>
       </c>
@@ -1064,16 +1072,20 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="13.25">
-      <c r="A6" s="38"/>
+    <row r="6" spans="1:7" ht="13.5">
+      <c r="A6" s="38" t="s">
+        <v>36</v>
+      </c>
       <c r="B6" s="38"/>
-      <c r="C6" s="11"/>
+      <c r="C6" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="13.25">
+    <row r="7" spans="1:7" ht="13.5">
       <c r="A7" s="4"/>
       <c r="B7" s="14"/>
       <c r="C7" s="4"/>
@@ -1082,7 +1094,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="13.25">
+    <row r="8" spans="1:7" ht="13.5">
       <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1105,7 +1117,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.25">
+    <row r="9" spans="1:7" ht="13.5">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -1122,7 +1134,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="36.75">
+    <row r="10" spans="1:7" ht="36">
       <c r="A10" s="28">
         <v>2</v>
       </c>
@@ -1143,7 +1155,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="24.5">
+    <row r="11" spans="1:7" ht="24">
       <c r="A11" s="21">
         <v>3</v>
       </c>
@@ -1164,7 +1176,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="24.5">
+    <row r="12" spans="1:7" ht="24">
       <c r="A12" s="28">
         <v>4</v>
       </c>
@@ -1185,7 +1197,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="24.5">
+    <row r="13" spans="1:7" ht="24">
       <c r="A13" s="21">
         <v>5</v>
       </c>
@@ -1206,7 +1218,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="24.5">
+    <row r="14" spans="1:7" ht="13.5">
       <c r="A14" s="28">
         <v>6</v>
       </c>
@@ -1223,7 +1235,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.25">
+    <row r="15" spans="1:7" ht="13.5">
       <c r="A15" s="21">
         <v>7</v>
       </c>
@@ -1240,7 +1252,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13.25">
+    <row r="16" spans="1:7" ht="13.5">
       <c r="A16" s="28">
         <v>8</v>
       </c>
@@ -1257,7 +1269,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.25">
+    <row r="17" spans="1:7" ht="13.5">
       <c r="A17" s="21">
         <v>9</v>
       </c>
@@ -1274,7 +1286,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.25">
+    <row r="18" spans="1:7" ht="13.5">
       <c r="A18" s="28">
         <v>10</v>
       </c>
@@ -1285,7 +1297,7 @@
       <c r="F18" s="33"/>
       <c r="G18" s="34"/>
     </row>
-    <row r="19" spans="1:7" ht="13.25">
+    <row r="19" spans="1:7" ht="13.5">
       <c r="A19" s="21">
         <v>11</v>
       </c>
@@ -1296,7 +1308,7 @@
       <c r="F19" s="33"/>
       <c r="G19" s="34"/>
     </row>
-    <row r="20" spans="1:7" ht="13.25">
+    <row r="20" spans="1:7" ht="13.5">
       <c r="A20" s="28">
         <v>12</v>
       </c>
@@ -1307,7 +1319,7 @@
       <c r="F20" s="33"/>
       <c r="G20" s="34"/>
     </row>
-    <row r="21" spans="1:7" ht="13.25">
+    <row r="21" spans="1:7" ht="13.5">
       <c r="A21" s="21">
         <v>13</v>
       </c>
@@ -1318,7 +1330,7 @@
       <c r="F21" s="33"/>
       <c r="G21" s="34"/>
     </row>
-    <row r="22" spans="1:7" ht="13.25">
+    <row r="22" spans="1:7" ht="13.5">
       <c r="A22" s="28">
         <v>14</v>
       </c>
@@ -1329,7 +1341,7 @@
       <c r="F22" s="33"/>
       <c r="G22" s="34"/>
     </row>
-    <row r="23" spans="1:7" ht="13.25">
+    <row r="23" spans="1:7" ht="13.5">
       <c r="A23" s="21">
         <v>15</v>
       </c>
@@ -1340,7 +1352,7 @@
       <c r="F23" s="33"/>
       <c r="G23" s="34"/>
     </row>
-    <row r="24" spans="1:7" ht="13.25">
+    <row r="24" spans="1:7" ht="13.5">
       <c r="A24" s="28">
         <v>16</v>
       </c>
@@ -1351,7 +1363,7 @@
       <c r="F24" s="33"/>
       <c r="G24" s="34"/>
     </row>
-    <row r="25" spans="1:7" ht="13.25">
+    <row r="25" spans="1:7" ht="13.5">
       <c r="A25" s="21">
         <v>17</v>
       </c>
@@ -1362,7 +1374,7 @@
       <c r="F25" s="33"/>
       <c r="G25" s="34"/>
     </row>
-    <row r="26" spans="1:7" ht="13.25">
+    <row r="26" spans="1:7" ht="13.5">
       <c r="A26" s="28"/>
       <c r="B26" s="29"/>
       <c r="C26" s="30"/>
@@ -1371,7 +1383,7 @@
       <c r="F26" s="33"/>
       <c r="G26" s="34"/>
     </row>
-    <row r="27" spans="1:7" ht="13.25">
+    <row r="27" spans="1:7" ht="13.5">
       <c r="A27" s="28"/>
       <c r="B27" s="29"/>
       <c r="C27" s="30"/>
@@ -1380,7 +1392,7 @@
       <c r="F27" s="33"/>
       <c r="G27" s="34"/>
     </row>
-    <row r="28" spans="1:7" ht="13.25">
+    <row r="28" spans="1:7" ht="13.5">
       <c r="A28" s="28"/>
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
@@ -1389,7 +1401,7 @@
       <c r="F28" s="33"/>
       <c r="G28" s="34"/>
     </row>
-    <row r="29" spans="1:7" ht="13.25">
+    <row r="29" spans="1:7" ht="13.5">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
